--- a/evaluation/records.xlsx
+++ b/evaluation/records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE04A81C-70B0-472B-AA4A-8CB183FB5E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07440402-B905-4908-80C8-8842E4A15335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/evaluation/records.xlsx
+++ b/evaluation/records.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07440402-B905-4908-80C8-8842E4A15335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBA9A85-562F-42A0-ACA9-085AC87AFB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
     <sheet name="BM4D" sheetId="2" r:id="rId2"/>
-    <sheet name="N2V" sheetId="3" r:id="rId3"/>
+    <sheet name="NAC" sheetId="4" r:id="rId3"/>
+    <sheet name="N2V" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="214">
   <si>
     <t>CPU</t>
   </si>
@@ -663,6 +664,14 @@
   </si>
   <si>
     <t>"MSE Loss " PSNR: 76.63051903508054; SSIM: 0.9999811596213144; MAE: 0.11016867998114321; BRISQUE: 44.25952471145027</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 63</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"MAE-SSIM"  72.136325955411; SSIM: 0.9999650321348112; MAE: 0.17598004865430994; BRISQUE: 151.04912825175612</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -845,16 +854,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -875,6 +879,33 @@
     <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="186" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1405,499 +1436,499 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="17" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1909,524 +1940,854 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7FE47A-064E-4C8C-91CA-B1B9222EEBB4}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="22" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27" style="10" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="1" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="22" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="27" style="7" customWidth="1"/>
+    <col min="8" max="8" width="31" style="21" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="23">
         <v>71.261355752175007</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="23">
         <v>0.99990612880717999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="23">
         <v>0.20456170305260399</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="23">
         <v>58.388631050727803</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>11833</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="23">
         <v>73.410279037801899</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="23">
         <v>0.99991681042209901</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="23">
         <v>0.205691267881775</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="23">
         <v>72.198415477909506</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>10253</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="23">
         <v>69.017758177915795</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="23">
         <v>0.99990022051126404</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="23">
         <v>0.28670435328967803</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="23">
         <v>151.08046044799201</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>11650</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="L11" t="s">
+      <c r="I11" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="L11" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="23">
         <v>73.053010043127003</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="23">
         <v>0.99995893692412596</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="23">
         <v>0.24595438759570201</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="23">
         <v>150.94897552922799</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>11033</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="23">
         <v>70.0864818321472</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="23">
         <v>0.99990301347556498</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="23">
         <v>0.306345996126765</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="23">
         <v>150.592626916081</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>13895</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="C14" s="23">
+        <v>65.045143517056502</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.999946827195341</v>
+      </c>
+      <c r="E14" s="23">
+        <v>9.7673917480278706E-5</v>
+      </c>
+      <c r="F14" s="23">
+        <v>155.845</v>
+      </c>
+      <c r="G14" s="6">
+        <v>13331</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L6 A14:L20 A9:B9 I9:L9 A10:B10 I10:L10 A11:B11 I11:L11 A12:B12 I12:L12 A13:B13 I13:L13 A8:L8 A7:H7 J7:L7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L6 A15:L20 A9:B9 I9:L9 A10:B10 I10:L10 A11:B11 J11:L11 A12:B12 I12:L12 A13:B13 I13:L13 A8:L8 A7:H7 J7:L7 A14:B14 I14:L14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/evaluation/records.xlsx
+++ b/evaluation/records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBA9A85-562F-42A0-ACA9-085AC87AFB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF914EB-D396-4CD4-A149-8A015C9AAB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="223">
   <si>
     <t>CPU</t>
   </si>
@@ -672,6 +672,42 @@
   </si>
   <si>
     <t>"MAE-SSIM"  72.136325955411; SSIM: 0.9999650321348112; MAE: 0.17598004865430994; BRISQUE: 151.04912825175612</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 43</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 72</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 66</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"without self-attention" PSNR: 71.17046881366969; SSIM: 0.9999489785156971; MAE: 0.18677562563243555; BRISQUE: 32.764169365780084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 69</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earllystop at epoch 64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ResNet34-UNet" PSNR: 62.63210813109686; SSIM: 0.9997934364639497; MAE: 0.4744313321862137; BRISQUE: 32.77104371008201</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +719,7 @@
     <numFmt numFmtId="185" formatCode="0.00000000_ "/>
     <numFmt numFmtId="186" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -731,6 +767,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -854,56 +896,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1254,9 +1299,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="14.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="14.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="14.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="14.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="14.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="14.25">
       <c r="I10" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="14.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="14.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1332,7 +1377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="14.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="14.25">
       <c r="I14" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="14.25">
       <c r="I15" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="14.25">
       <c r="I16" t="s">
         <v>30</v>
       </c>
@@ -1376,7 +1421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="14.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1384,32 +1429,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="14.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="14.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="14.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="14.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1434,501 +1479,501 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="21">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="21">
+      <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21">
+      <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="21">
+      <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="21">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="21">
+      <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="21">
+      <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="21">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="21">
+      <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="21">
+      <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="21">
+      <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="21">
+      <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="21">
+      <c r="A13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="21">
+      <c r="A14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" ht="21">
+      <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="21">
+      <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="21">
+      <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="21">
+      <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="21">
+      <c r="A19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="21">
+      <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1941,13 +1986,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7FE47A-064E-4C8C-91CA-B1B9222EEBB4}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
@@ -1957,47 +2002,66 @@
     <col min="8" max="8" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="20.25">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C2" s="4">
+        <v>73.7978613565719</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.99997030609378801</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.14101973234937701</v>
+      </c>
+      <c r="F2" s="4">
+        <v>32.750464083974201</v>
+      </c>
+      <c r="G2" s="8">
+        <v>15294</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
@@ -2008,10 +2072,11 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="22" t="s">
         <v>49</v>
       </c>
@@ -2022,10 +2087,11 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.25">
       <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
@@ -2036,10 +2102,11 @@
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.25">
       <c r="A6" s="22" t="s">
         <v>49</v>
       </c>
@@ -2050,10 +2117,11 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25">
       <c r="A7" s="22" t="s">
         <v>49</v>
       </c>
@@ -2064,10 +2132,11 @@
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25">
       <c r="A8" s="22" t="s">
         <v>49</v>
       </c>
@@ -2078,10 +2147,11 @@
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.25">
       <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
@@ -2092,10 +2162,11 @@
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25">
       <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
@@ -2106,10 +2177,11 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.25">
       <c r="A11" s="22" t="s">
         <v>104</v>
       </c>
@@ -2120,10 +2192,11 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25">
       <c r="A12" s="22" t="s">
         <v>104</v>
       </c>
@@ -2134,10 +2207,11 @@
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25">
       <c r="A13" s="22" t="s">
         <v>104</v>
       </c>
@@ -2148,10 +2222,11 @@
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25">
       <c r="A14" s="22" t="s">
         <v>104</v>
       </c>
@@ -2161,11 +2236,14 @@
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25">
       <c r="A15" s="22" t="s">
         <v>104</v>
       </c>
@@ -2176,10 +2254,11 @@
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25">
       <c r="A16" s="22" t="s">
         <v>104</v>
       </c>
@@ -2190,10 +2269,11 @@
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.25">
       <c r="A17" s="22" t="s">
         <v>104</v>
       </c>
@@ -2204,10 +2284,11 @@
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.25">
       <c r="A18" s="22" t="s">
         <v>104</v>
       </c>
@@ -2218,10 +2299,11 @@
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.25">
       <c r="A19" s="22" t="s">
         <v>104</v>
       </c>
@@ -2232,10 +2314,11 @@
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.25">
       <c r="A20" s="22" t="s">
         <v>151</v>
       </c>
@@ -2246,8 +2329,9 @@
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="22"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2259,52 +2343,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="21"/>
     <col min="3" max="3" width="22" style="24" customWidth="1"/>
     <col min="4" max="4" width="19.875" style="24" customWidth="1"/>
     <col min="5" max="5" width="19.125" style="24" customWidth="1"/>
     <col min="6" max="6" width="27.375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="27" style="7" customWidth="1"/>
+    <col min="7" max="7" width="27" style="25" customWidth="1"/>
     <col min="8" max="8" width="31" style="21" customWidth="1"/>
     <col min="9" max="9" width="19.75" style="21" customWidth="1"/>
     <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" ht="20.25">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" ht="20.25">
       <c r="A2" s="22" t="s">
         <v>49</v>
       </c>
@@ -2323,7 +2405,7 @@
       <c r="F2" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>162</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -2332,7 +2414,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.25">
       <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
@@ -2351,7 +2433,7 @@
       <c r="F3" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H3" s="22" t="s">
@@ -2360,7 +2442,7 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="20.25">
       <c r="A4" s="22" t="s">
         <v>49</v>
       </c>
@@ -2379,7 +2461,7 @@
       <c r="F4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>174</v>
       </c>
       <c r="H4" s="22" t="s">
@@ -2388,7 +2470,7 @@
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="20.25">
       <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
@@ -2407,7 +2489,7 @@
       <c r="F5" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>180</v>
       </c>
       <c r="H5" s="22" t="s">
@@ -2416,7 +2498,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="20.25">
       <c r="A6" s="22" t="s">
         <v>49</v>
       </c>
@@ -2435,7 +2517,7 @@
       <c r="F6" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>186</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -2444,7 +2526,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="20.25">
       <c r="A7" s="22" t="s">
         <v>49</v>
       </c>
@@ -2463,7 +2545,7 @@
       <c r="F7" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>192</v>
       </c>
       <c r="H7" s="22" t="s">
@@ -2474,7 +2556,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="20.25">
       <c r="A8" s="22" t="s">
         <v>49</v>
       </c>
@@ -2493,7 +2575,7 @@
       <c r="F8" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>198</v>
       </c>
       <c r="H8" s="22" t="s">
@@ -2502,7 +2584,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="20.25">
       <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
@@ -2521,7 +2603,7 @@
       <c r="F9" s="23">
         <v>58.388631050727803</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <v>11833</v>
       </c>
       <c r="H9" s="22" t="s">
@@ -2530,7 +2612,7 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="20.25">
       <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
@@ -2549,7 +2631,7 @@
       <c r="F10" s="23">
         <v>72.198415477909506</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="8">
         <v>10253</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -2558,7 +2640,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="20.25">
       <c r="A11" s="22" t="s">
         <v>104</v>
       </c>
@@ -2577,7 +2659,7 @@
       <c r="F11" s="23">
         <v>151.08046044799201</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>11650</v>
       </c>
       <c r="H11" s="22" t="s">
@@ -2591,7 +2673,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="20.25">
       <c r="A12" s="22" t="s">
         <v>104</v>
       </c>
@@ -2610,7 +2692,7 @@
       <c r="F12" s="23">
         <v>150.94897552922799</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="8">
         <v>11033</v>
       </c>
       <c r="H12" s="22" t="s">
@@ -2619,7 +2701,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="20.25">
       <c r="A13" s="22" t="s">
         <v>104</v>
       </c>
@@ -2638,7 +2720,7 @@
       <c r="F13" s="23">
         <v>150.592626916081</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="8">
         <v>13895</v>
       </c>
       <c r="H13" s="22" t="s">
@@ -2647,7 +2729,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="20.25">
       <c r="A14" s="22" t="s">
         <v>104</v>
       </c>
@@ -2666,7 +2748,7 @@
       <c r="F14" s="23">
         <v>155.845</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>13331</v>
       </c>
       <c r="H14" s="22" t="s">
@@ -2675,87 +2757,147 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="20.25">
       <c r="A15" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="23">
+        <v>72.866218009841603</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.99994369012752204</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.16201935649587501</v>
+      </c>
+      <c r="F15" s="23">
+        <v>148.73352611712801</v>
+      </c>
+      <c r="G15" s="8">
+        <v>9583</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>214</v>
+      </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="20.25">
       <c r="A16" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="22"/>
+      <c r="C16" s="4">
+        <v>73.069458725139299</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.99992596226554498</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.18877050939045101</v>
+      </c>
+      <c r="F16" s="4">
+        <v>34.809864451223497</v>
+      </c>
+      <c r="G16" s="8">
+        <v>13665</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>216</v>
+      </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="20.25">
       <c r="A17" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="22"/>
+      <c r="C17" s="4">
+        <v>72.684363787667394</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.99992393364699494</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.193462881245068</v>
+      </c>
+      <c r="F17" s="4">
+        <v>28.259755688851801</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8259</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>217</v>
+      </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="20.25">
       <c r="A18" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="22"/>
+      <c r="C18" s="4">
+        <v>61.736953310268802</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.99955766262807</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.22372418248414699</v>
+      </c>
+      <c r="F18" s="4">
+        <v>34.379446848052098</v>
+      </c>
+      <c r="G18" s="8">
+        <v>14221</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>219</v>
+      </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="20.25">
       <c r="A19" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="1">
+        <v>70.801012945922807</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99992392224826099</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.206715363085095</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44.043669171066398</v>
+      </c>
+      <c r="G19" s="8">
+        <v>13449</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="20.25">
       <c r="A20" s="22" t="s">
         <v>151</v>
       </c>
@@ -2774,7 +2916,7 @@
       <c r="F20" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="8" t="s">
         <v>204</v>
       </c>
       <c r="H20" s="22" t="s">
@@ -2787,7 +2929,7 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L6 A15:L20 A9:B9 I9:L9 A10:B10 I10:L10 A11:B11 J11:L11 A12:B12 I12:L12 A13:B13 I13:L13 A8:L8 A7:H7 J7:L7 A14:B14 I14:L14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L6 A20:L20 A9:B9 I9:L9 A10:B10 I10:L10 A11:B11 J11:L11 A12:B12 I12:L12 A13:B13 I13:L13 A8:L8 A7:H7 J7:L7 A14:B14 I14:L14 A15:B15 I15:L15 A16:B16 I16:L16 A17:B17 I17:L17 A18:B18 I18:L18 A19:B19 I19:L19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/evaluation/records.xlsx
+++ b/evaluation/records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF914EB-D396-4CD4-A149-8A015C9AAB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DE22A-0EC5-4276-A8D4-2EF788C26D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="224">
   <si>
     <t>CPU</t>
   </si>
@@ -708,6 +708,10 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 24</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -716,8 +720,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="185" formatCode="0.00000000_ "/>
-    <numFmt numFmtId="186" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -906,31 +910,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -942,13 +946,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1299,9 +1303,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25">
+    <row r="10" spans="1:12">
       <c r="I10" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.25">
+    <row r="14" spans="1:12">
       <c r="I14" t="s">
         <v>24</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.25">
+    <row r="15" spans="1:12">
       <c r="I15" t="s">
         <v>28</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25">
+    <row r="16" spans="1:12">
       <c r="I16" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1429,32 +1433,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1989,7 +1993,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2036,21 +2040,11 @@
       <c r="B2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4">
-        <v>73.7978613565719</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.99997030609378801</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.14101973234937701</v>
-      </c>
-      <c r="F2" s="4">
-        <v>32.750464083974201</v>
-      </c>
-      <c r="G2" s="8">
-        <v>15294</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="22" t="s">
         <v>215</v>
       </c>
@@ -2068,12 +2062,24 @@
       <c r="B3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="22"/>
+      <c r="C3" s="1">
+        <v>38.567865137799103</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.89943954453264996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19.318458780413401</v>
+      </c>
+      <c r="F3" s="1">
+        <v>27.021698103898601</v>
+      </c>
+      <c r="G3" s="8">
+        <v>4213</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>223</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
